--- a/GrocceryApplication/src/test/resources/TestData GrocceryLogin.xlsx
+++ b/GrocceryApplication/src/test/resources/TestData GrocceryLogin.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\GrocceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\GrocceryApplication\GrocceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C4CE80-BF5E-4E2C-870F-D8BF5BE465ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A294E34F-8E43-43C4-9D44-5BB1CABADCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GrocceryLoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="GrocceryAdminPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
@@ -34,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">neha </t>
+  </si>
+  <si>
+    <t>Athmaja</t>
   </si>
 </sst>
 </file>
@@ -353,7 +357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +398,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44FFE2-B25A-4624-87D7-DE71C20C8C4A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>